--- a/testData/OpneCartLoginData.xlsx
+++ b/testData/OpneCartLoginData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C6F2B47-AFA4-43DF-A66B-255569EC4052}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00452B4A-2B88-46D1-8F97-FA284221582D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>abc@123</t>
   </si>
   <si>
-    <t>xyz2@gmail.co</t>
+    <t>xyz2@yahoo.com</t>
   </si>
   <si>
     <t>invalid</t>
@@ -463,7 +463,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -510,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>234</v>
+        <v>23345</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
